--- a/output/piastow/2019/sheets/year_2019.xlsx
+++ b/output/piastow/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51.97741935483872</v>
+        <v>52.09678304871743</v>
       </c>
       <c r="C2" t="n">
-        <v>44.23870967741935</v>
+        <v>44.84993668655862</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>51.88928571428571</v>
+        <v>52.06982754281088</v>
       </c>
       <c r="C3" t="n">
-        <v>44.50357142857143</v>
+        <v>44.68251244664788</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>47.89354838709678</v>
+        <v>50.04680245933699</v>
       </c>
       <c r="C4" t="n">
-        <v>41.46129032258066</v>
+        <v>43.27763861510587</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30.38666666666666</v>
+        <v>43.11438835715698</v>
       </c>
       <c r="C5" t="n">
-        <v>24.61333333333334</v>
+        <v>39.61987841296011</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.3774193548387</v>
+        <v>43.82978611588413</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1</v>
+        <v>40.42088858894011</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33.01000000000001</v>
+        <v>42.39531350349847</v>
       </c>
       <c r="C7" t="n">
-        <v>26.43666666666667</v>
+        <v>39.44129772680832</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>52.4967741935484</v>
+        <v>52.53496424194496</v>
       </c>
       <c r="C8" t="n">
-        <v>44.94193548387098</v>
+        <v>45.14880743720555</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.89677419354839</v>
+        <v>52.93316797507289</v>
       </c>
       <c r="C9" t="n">
-        <v>45.33870967741935</v>
+        <v>45.60568219983342</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.40000000000001</v>
+        <v>53.44667482187187</v>
       </c>
       <c r="C10" t="n">
-        <v>45.86666666666667</v>
+        <v>46.0843244235221</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.16774193548387</v>
+        <v>51.75051760218875</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45806451612903</v>
+        <v>43.69354450133876</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.46666666666668</v>
+        <v>53.50191930236699</v>
       </c>
       <c r="C12" t="n">
-        <v>45.82000000000001</v>
+        <v>46.14587478180727</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.02903225806451</v>
+        <v>52.23445066939162</v>
       </c>
       <c r="C13" t="n">
-        <v>43.95161290322581</v>
+        <v>44.81765164725087</v>
       </c>
     </row>
   </sheetData>
